--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690293</v>
+        <v>2925138.221172387</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>160.1659968642483</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.455314574987</v>
       </c>
     </row>
     <row r="3">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>76.48464164091949</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.38267037520646</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.808901714272</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>337.4550179536795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>47.14167849255922</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150879</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994821</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>142.7059665293327</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056957</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.1193700387796</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887061</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814136</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>45.66054613217746</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>140.1230996349835</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004698</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.7157213271133</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1370.766673031379</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.766673031379</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.500974424629</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>626.7127218263845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>215.7268170367769</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.366513095501</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4510,25 +4510,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.3318138408822</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2673.530232053367</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2673.530232053367</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2673.530232053367</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2419.768446691459</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.705559347888</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1735.936904077774</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1362.471145816694</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>972.3318138408822</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638591</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814659</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>101.5608388835556</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>229.5592957321589</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2085.82313412342</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.656698326753</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,37 +7160,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-1.865215427520515e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1.694685170938091e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-6.600113726392897e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-6.600113726392897e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-5.294306545096518e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.968170815488144e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-1.968170815488144e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-3.020569790664198e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203867962</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.727996117236472</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.265263452949</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112516645</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534892</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.265263452949</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788491</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651556</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>119.8635921600914</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624161</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.90318636666106</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911056</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577087</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670406</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670403</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670403</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670404</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670432</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670407</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.003067652</v>
+        <v>-196532.0030676521</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468926</v>
+        <v>393435.8761468928</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468925</v>
+        <v>393435.8761468924</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390313</v>
+        <v>-384701.6933644674</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186778</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186777</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186777</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260845</v>
+        <v>383247.8652006491</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186773</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.311610619</v>
+        <v>435462.5736851835</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186772</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.0843932421</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245869</v>
+        <v>990.2318361245875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>253.6181731565466</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.7826240810666</v>
       </c>
     </row>
     <row r="3">
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>210.0383566956715</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>31.09573219960525</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277057</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373352</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.1681237664917</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.88527183700694</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550387</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796302</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655505</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068245</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899863</v>
+        <v>366.8427442359094</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709955</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509758</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150239</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118732</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.460582998417</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070482</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717054</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629693</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856763</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324654</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>425.454249006653</v>
+        <v>235.5010321525761</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664555</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316906</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777931999</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150837</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507074</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237149</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
